--- a/doc/evaluation/performance/results.xlsx
+++ b/doc/evaluation/performance/results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inesctecpt-my.sharepoint.com/personal/ricardo_b_sousa_office365_inesctec_pt/Documents/inesctec/projects/vinci7d/articles/ieee-access/data/doc/evaluation/performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{02AAFBE7-B781-40C8-A9F5-E917ACCDA750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DB3F82C-A3F0-47B1-B114-D19DDED9D56B}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{02AAFBE7-B781-40C8-A9F5-E917ACCDA750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20E935C2-2933-43FE-813C-E3179BF8A852}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DEBDFA82-DF3E-4483-BB55-D72FE95C392A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{DEBDFA82-DF3E-4483-BB55-D72FE95C392A}"/>
   </bookViews>
   <sheets>
     <sheet name="V7DParserRaw" sheetId="2" r:id="rId1"/>
     <sheet name="GerbLibRaw" sheetId="4" r:id="rId2"/>
     <sheet name="V7DParser" sheetId="1" r:id="rId3"/>
     <sheet name="GerbLib" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -516,6 +517,4835 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:intercept val="3.5015000000000001"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17318174337395831"/>
+                  <c:y val="-1.8438144541710447E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>V7DParser!$A$3:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>dynamic-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dynamic-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dynamic-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dynamic-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dynamic-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dynamic-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dynamic-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dynamic-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>dynamic-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>dynamic-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>dynamic-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dynamic-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dynamic-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>dynamic-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>dynamic-15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>dynamic-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>dynamic-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>dynamic-18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>dynamic-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>dynamic-20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>dynamic-21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>dynamic-22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>dynamic-23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>dynamic-24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>dynamic-25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>dynamic-26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>dynamic-27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>dynamic-28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>dynamic-29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>dynamic-30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>dynamic-31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>dynamic-32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>dynamic-33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>dynamic-34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>dynamic-35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>dynamic-36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>dynamic-37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>dynamic-38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>dynamic-39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>dynamic-40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>V7DParser!$X$3:$X$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>3.5015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.495000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.494999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.90700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242.96449999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>322.58550000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>420.255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>547.47149999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>689.70299999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>835.98400000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1009.0585</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1218.809</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1417.1880000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1641.58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1891.8320000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2491.5419999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2511.2719999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2807.6019999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3212.2170000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3833.3355000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4328.9014999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4869.6875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5934.9719999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6645.4870000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7749.8734999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8535.6154999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9566.7335000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10743.4625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11642.378500000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12589.52</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13880.7595</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15892.1625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15894.630999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19006.4015</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20176.701000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21781.961500000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22884.113000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25046.66</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25954.0245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4EA-41A8-B982-BA41B2FA6C9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="367116111"/>
+        <c:axId val="367114031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="367116111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367114031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="367114031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367116111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>V7DParser!$A$43:$A$82</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>static-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>static-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>static-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>static-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>static-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>static-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>static-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>static-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>static-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>static-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>static-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>static-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>static-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>static-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>static-15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>static-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>static-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>static-18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>static-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>static-20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>static-21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>static-22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>static-23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>static-24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>static-25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>static-26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>static-27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>static-28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>static-29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>static-30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>static-31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>static-32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>static-33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>static-34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>static-35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>static-36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>static-37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>static-38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>static-39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>static-40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>V7DParser!$X$43:$X$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>3.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9247.1314999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9177.1360000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9069.2805000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9248.6664999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9193.8505000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9341.4570000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9186.0640000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9042.7875000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9039.2999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9001.4429999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9358.6064999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9449.0609999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9779.0920000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9656.0149999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9629.7194999999992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9812.56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9879.2019999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9677.4840000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9933.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9620.2065000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9749.0589999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9709.1039999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9694.7160000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9954.0149999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9864.4174999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9990.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9748.4490000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9704.2644999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9691.3179999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9704.33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9631.2165000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9777.6869999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9815.2005000000008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9572.6769999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9672.0424999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9714.7119999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9733.4855000000007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9800.1525000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9747.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F90-4145-849E-563F3AB892DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="367116111"/>
+        <c:axId val="367114031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="367116111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367114031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="367114031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367116111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:intercept val="589.85899999999992"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>GerbLib!$A$3:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>dynamic-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dynamic-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dynamic-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dynamic-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dynamic-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dynamic-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dynamic-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dynamic-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>dynamic-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>dynamic-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>dynamic-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dynamic-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dynamic-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>dynamic-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>dynamic-15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>dynamic-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>dynamic-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>dynamic-18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>dynamic-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>dynamic-20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>dynamic-21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>dynamic-22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>dynamic-23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>dynamic-24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>dynamic-25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>dynamic-26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>dynamic-27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>dynamic-28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>dynamic-29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>dynamic-30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>dynamic-31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>dynamic-32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>dynamic-33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>dynamic-34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>dynamic-35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>dynamic-36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>dynamic-37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>dynamic-38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>dynamic-39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>dynamic-40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GerbLib!$X$3:$X$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>589.85900000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>538.13649999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>559.10599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>579.57100000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575.42949999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>622.08699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>657.09900000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>649.39649999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>899.54650000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>945.54049999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>961.22749999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>993.72450000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1037.873</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1131.0905</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1121.1955</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1218.9884999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1581.1675</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1645.1110000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1733.018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1830.3035</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1877.3074999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1939.7674999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1937.1804999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2084.0920000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2671.1334999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2746.0515</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2779.7629999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2925.96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2972.1754999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3039.1714999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3231.7685000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3222.8939999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4072.9245000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4233.8014999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4305.2759999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4293.7015000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4660.027</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4600.2205000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4636.8739999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4820.8680000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEC1-4DBA-A220-BC23257D2B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="29809007"/>
+        <c:axId val="29806511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="29809007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29806511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="29806511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29809007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>V7DParser</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>V7DParser!$A$3:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>dynamic-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dynamic-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dynamic-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dynamic-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dynamic-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dynamic-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dynamic-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dynamic-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>dynamic-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>dynamic-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>dynamic-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dynamic-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dynamic-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>dynamic-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>dynamic-15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>dynamic-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>dynamic-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>dynamic-18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>dynamic-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>dynamic-20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>dynamic-21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>dynamic-22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>dynamic-23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>dynamic-24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>dynamic-25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>dynamic-26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>dynamic-27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>dynamic-28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>dynamic-29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>dynamic-30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>dynamic-31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>dynamic-32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>dynamic-33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>dynamic-34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>dynamic-35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>dynamic-36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>dynamic-37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>dynamic-38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>dynamic-39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>dynamic-40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>V7DParser!$X$3:$X$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>3.5015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.495000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.494999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.90700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242.96449999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>322.58550000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>420.255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>547.47149999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>689.70299999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>835.98400000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1009.0585</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1218.809</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1417.1880000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1641.58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1891.8320000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2491.5419999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2511.2719999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2807.6019999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3212.2170000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3833.3355000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4328.9014999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4869.6875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5934.9719999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6645.4870000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7749.8734999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8535.6154999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9566.7335000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10743.4625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11642.378500000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12589.52</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13880.7595</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15892.1625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15894.630999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19006.4015</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20176.701000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21781.961500000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22884.113000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25046.66</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25954.0245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3B5-4223-A463-744EBBB9B13C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GerbLib</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>GerbLib!$A$3:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>dynamic-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dynamic-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dynamic-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dynamic-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dynamic-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dynamic-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dynamic-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dynamic-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>dynamic-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>dynamic-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>dynamic-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dynamic-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dynamic-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>dynamic-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>dynamic-15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>dynamic-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>dynamic-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>dynamic-18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>dynamic-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>dynamic-20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>dynamic-21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>dynamic-22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>dynamic-23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>dynamic-24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>dynamic-25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>dynamic-26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>dynamic-27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>dynamic-28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>dynamic-29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>dynamic-30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>dynamic-31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>dynamic-32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>dynamic-33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>dynamic-34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>dynamic-35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>dynamic-36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>dynamic-37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>dynamic-38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>dynamic-39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>dynamic-40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GerbLib!$X$3:$X$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>589.85900000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>538.13649999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>559.10599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>579.57100000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575.42949999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>622.08699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>657.09900000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>649.39649999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>899.54650000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>945.54049999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>961.22749999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>993.72450000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1037.873</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1131.0905</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1121.1955</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1218.9884999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1581.1675</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1645.1110000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1733.018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1830.3035</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1877.3074999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1939.7674999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1937.1804999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2084.0920000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2671.1334999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2746.0515</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2779.7629999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2925.96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2972.1754999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3039.1714999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3231.7685000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3222.8939999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4072.9245000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4233.8014999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4305.2759999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4293.7015000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4660.027</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4600.2205000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4636.8739999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4820.8680000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C3B5-4223-A463-744EBBB9B13C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="555219119"/>
+        <c:axId val="555217455"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="555219119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555217455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="555217455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555219119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>494035</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104142</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD61BCC-2CF4-4CD9-93CB-CD4C861E46FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>494035</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>104143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94537AB6-8A46-4310-9E8C-774932C20FD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>445050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDEE8F6C-B40C-4915-B6CA-50CC20DDE52F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48874C6-EFE8-4307-A7AA-2EDA81DCC2E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -21498,11 +26328,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1594C5C-7DC6-4B79-A241-8EA9458398AD}">
   <dimension ref="A1:Z104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28531,6 +33361,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28539,10 +33370,10 @@
   <dimension ref="A1:Z82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="AF29" sqref="AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35490,5 +40321,21 @@
     <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9BD94C-BFE8-4A6C-B48C-0C3A4800F447}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>